--- a/data/trans_orig/P2C_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>93995</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76790</v>
+        <v>78058</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111561</v>
+        <v>111998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1902488236867935</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1554245320182386</v>
+        <v>0.1579908405551611</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2258031866132651</v>
+        <v>0.2266873836703693</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -765,19 +765,19 @@
         <v>98370</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>82645</v>
+        <v>81557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116982</v>
+        <v>117215</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2104213267908291</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1767858397828817</v>
+        <v>0.1744571272223981</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2502351102737614</v>
+        <v>0.2507329999357786</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>200</v>
@@ -786,19 +786,19 @@
         <v>192365</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168254</v>
+        <v>169942</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>216617</v>
+        <v>218418</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2000563179790677</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1749810916191727</v>
+        <v>0.1767366480271948</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2252778397109657</v>
+        <v>0.2271507943735682</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>400069</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>382503</v>
+        <v>382066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>417274</v>
+        <v>416006</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8097511763132065</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7741968133867347</v>
+        <v>0.7733126163296307</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8445754679817614</v>
+        <v>0.8420091594448389</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>385</v>
@@ -836,19 +836,19 @@
         <v>369119</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>350507</v>
+        <v>350274</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>384844</v>
+        <v>385932</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.789578673209171</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7497648897262387</v>
+        <v>0.7492670000642215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8232141602171184</v>
+        <v>0.825542872777602</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>788</v>
@@ -857,19 +857,19 @@
         <v>769188</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>744936</v>
+        <v>743135</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>793299</v>
+        <v>791611</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7999436820209324</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7747221602890342</v>
+        <v>0.7728492056264318</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8250189083808273</v>
+        <v>0.8232633519728051</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>217842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>193276</v>
+        <v>194416</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>243663</v>
+        <v>246977</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2961869733784356</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2627855087674172</v>
+        <v>0.264336188264581</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3312940249771802</v>
+        <v>0.3358003980698772</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>303</v>
@@ -982,19 +982,19 @@
         <v>320712</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>295816</v>
+        <v>294392</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>346635</v>
+        <v>345395</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5127339134834331</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4729320668946728</v>
+        <v>0.4706547695909197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5541773477134656</v>
+        <v>0.5521957874612472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>512</v>
@@ -1003,19 +1003,19 @@
         <v>538554</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>502325</v>
+        <v>499980</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>573788</v>
+        <v>572840</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3957097663788693</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3690899996088421</v>
+        <v>0.367366975646054</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4215984188106457</v>
+        <v>0.4209018008238262</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>517647</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>491826</v>
+        <v>488512</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>542213</v>
+        <v>541073</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7038130266215643</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6687059750228198</v>
+        <v>0.6641996019301227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7372144912325828</v>
+        <v>0.7356638117354189</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>288</v>
@@ -1053,19 +1053,19 @@
         <v>304782</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>278859</v>
+        <v>280099</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>329678</v>
+        <v>331102</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4872660865165668</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4458226522865344</v>
+        <v>0.4478042125387532</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5270679331053275</v>
+        <v>0.5293452304090807</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>782</v>
@@ -1074,19 +1074,19 @@
         <v>822428</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>787194</v>
+        <v>788142</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>858657</v>
+        <v>861002</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6042902336211307</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5784015811893544</v>
+        <v>0.5790981991761738</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.630910000391158</v>
+        <v>0.6326330243539457</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>353168</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>327629</v>
+        <v>328365</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>379544</v>
+        <v>378415</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5529756640389228</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5129885824629227</v>
+        <v>0.5141401202800895</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5942745168349344</v>
+        <v>0.5925073185612255</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>388</v>
@@ -1199,19 +1199,19 @@
         <v>406510</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>382305</v>
+        <v>381019</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>432819</v>
+        <v>432584</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5893642000644103</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5542704803326928</v>
+        <v>0.5524058027312596</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6275068986045376</v>
+        <v>0.6271659125625554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>727</v>
@@ -1220,19 +1220,19 @@
         <v>759678</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>724620</v>
+        <v>722312</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>799538</v>
+        <v>796463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5718694911933621</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5454781144543768</v>
+        <v>0.54374094147413</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6018753236294714</v>
+        <v>0.5995602044889298</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>285500</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>259124</v>
+        <v>260253</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311039</v>
+        <v>310303</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4470243359610772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4057254831650656</v>
+        <v>0.4074926814387745</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4870114175370773</v>
+        <v>0.4858598797199106</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>270</v>
@@ -1270,19 +1270,19 @@
         <v>283234</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256925</v>
+        <v>257160</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>307439</v>
+        <v>308725</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4106357999355898</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3724931013954627</v>
+        <v>0.3728340874374446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4457295196673072</v>
+        <v>0.4475941972687399</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>544</v>
@@ -1291,19 +1291,19 @@
         <v>568734</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>528874</v>
+        <v>531949</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>603792</v>
+        <v>606100</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.428130508806638</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3981246763705289</v>
+        <v>0.4004397955110706</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4545218855456232</v>
+        <v>0.4562590585258701</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>167718</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>147615</v>
+        <v>146685</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191387</v>
+        <v>190487</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3230647278966321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2843421107062244</v>
+        <v>0.2825500812077634</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3686565786663907</v>
+        <v>0.3669224075654905</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>126</v>
@@ -1416,19 +1416,19 @@
         <v>130257</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112812</v>
+        <v>109637</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>152654</v>
+        <v>148591</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2526117623553255</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2187793814998898</v>
+        <v>0.2126220857178041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2960466023553573</v>
+        <v>0.2881665602954308</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>283</v>
@@ -1437,19 +1437,19 @@
         <v>297975</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>267705</v>
+        <v>270956</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>325903</v>
+        <v>330664</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.287957564791314</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2587053487131495</v>
+        <v>0.2618465571295923</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3149461785386799</v>
+        <v>0.3195472794690072</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>351429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>327760</v>
+        <v>328660</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371532</v>
+        <v>372462</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6769352721033679</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6313434213336093</v>
+        <v>0.6330775924345095</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7156578892937753</v>
+        <v>0.7174499187922361</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>376</v>
@@ -1487,19 +1487,19 @@
         <v>385385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>362988</v>
+        <v>367051</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>402830</v>
+        <v>406005</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7473882376446745</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7039533976446423</v>
+        <v>0.7118334397045692</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.78122061850011</v>
+        <v>0.7873779142821959</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>703</v>
@@ -1508,19 +1508,19 @@
         <v>736814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>708886</v>
+        <v>704125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>767084</v>
+        <v>763833</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.712042435208686</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6850538214613201</v>
+        <v>0.6804527205309929</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7412946512868506</v>
+        <v>0.738153442870408</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>45537</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33694</v>
+        <v>33756</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60435</v>
+        <v>57939</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1177556865559818</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08712998941677907</v>
+        <v>0.08729056370236109</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1562796538512936</v>
+        <v>0.1498247252106618</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -1633,19 +1633,19 @@
         <v>75565</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>60758</v>
+        <v>61336</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92096</v>
+        <v>93160</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1870476971845379</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1503967701061255</v>
+        <v>0.1518260557779802</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2279692513518735</v>
+        <v>0.2306029844920832</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>118</v>
@@ -1654,19 +1654,19 @@
         <v>121102</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102504</v>
+        <v>102332</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143383</v>
+        <v>142424</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1531586736054854</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1296370576428485</v>
+        <v>0.1294199766065257</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1813382375608614</v>
+        <v>0.180125458844206</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>341173</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>326275</v>
+        <v>328771</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>353016</v>
+        <v>352954</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8822443134440182</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8437203461487064</v>
+        <v>0.8501752747893382</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9128700105832208</v>
+        <v>0.9127094362976389</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>322</v>
@@ -1704,19 +1704,19 @@
         <v>328421</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>311890</v>
+        <v>310826</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>343228</v>
+        <v>342650</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.812952302815462</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7720307486481262</v>
+        <v>0.7693970155079156</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8496032298938744</v>
+        <v>0.8481739442220197</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>670</v>
@@ -1725,19 +1725,19 @@
         <v>669594</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>647313</v>
+        <v>648272</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>688192</v>
+        <v>688364</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8468413263945146</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8186617624391386</v>
+        <v>0.8198745411557941</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8703629423571515</v>
+        <v>0.8705800233934743</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>30809</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21307</v>
+        <v>21309</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41762</v>
+        <v>42806</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1053006345758169</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07282290827137407</v>
+        <v>0.07283069779617432</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1427363740215229</v>
+        <v>0.146305085384777</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -1850,19 +1850,19 @@
         <v>59912</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47044</v>
+        <v>46722</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73889</v>
+        <v>72726</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1747055774629706</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1371795977090641</v>
+        <v>0.1362423675602418</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2154607180584267</v>
+        <v>0.2120696889722022</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>98</v>
@@ -1871,19 +1871,19 @@
         <v>90722</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75035</v>
+        <v>73076</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108258</v>
+        <v>108040</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1427525275140577</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1180692825039658</v>
+        <v>0.1149867335917548</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1703462032103826</v>
+        <v>0.1700028643538959</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>261774</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250821</v>
+        <v>249777</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271276</v>
+        <v>271274</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.894699365424183</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8572636259784771</v>
+        <v>0.8536949146152232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9271770917286257</v>
+        <v>0.9271693022038258</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>306</v>
@@ -1921,19 +1921,19 @@
         <v>283022</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269045</v>
+        <v>270208</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>295890</v>
+        <v>296212</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8252944225370294</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7845392819415739</v>
+        <v>0.7879303110277976</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.862820402290936</v>
+        <v>0.863757632439758</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>576</v>
@@ -1942,19 +1942,19 @@
         <v>544795</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>527259</v>
+        <v>527477</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>560482</v>
+        <v>562441</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8572474724859424</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8296537967896176</v>
+        <v>0.8299971356461044</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8819307174960345</v>
+        <v>0.8850132664082455</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>46364</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35332</v>
+        <v>35737</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58806</v>
+        <v>59088</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2209027733886383</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1683432585123836</v>
+        <v>0.1702720239650188</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2801852893529372</v>
+        <v>0.2815293192824055</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -2067,19 +2067,19 @@
         <v>75597</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59845</v>
+        <v>61063</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90021</v>
+        <v>94679</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2264018233558423</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1792267787933559</v>
+        <v>0.182874945870289</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.269596836373785</v>
+        <v>0.2835489009914705</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -2088,19 +2088,19 @@
         <v>121961</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>103205</v>
+        <v>103832</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>143290</v>
+        <v>143796</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2242793955416905</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.189788583105097</v>
+        <v>0.190941215535235</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2635011894387476</v>
+        <v>0.2644316598163289</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>163519</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>151077</v>
+        <v>150795</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>174551</v>
+        <v>174146</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7790972266113617</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7198147106470628</v>
+        <v>0.7184706807175938</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8316567414876164</v>
+        <v>0.8297279760349811</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>223</v>
@@ -2138,19 +2138,19 @@
         <v>258311</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>243887</v>
+        <v>239229</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>274063</v>
+        <v>272845</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7735981766441576</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.730403163626215</v>
+        <v>0.7164510990085293</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.820773221206644</v>
+        <v>0.8171250541297108</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>393</v>
@@ -2159,19 +2159,19 @@
         <v>421830</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>400501</v>
+        <v>399995</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>440586</v>
+        <v>439959</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7757206044583095</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7364988105612523</v>
+        <v>0.7355683401836711</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8102114168949029</v>
+        <v>0.8090587844647648</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>955433</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>904714</v>
+        <v>904918</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1005061</v>
+        <v>1013183</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2915979110211142</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2761184462465214</v>
+        <v>0.2761808669706685</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3067442804999569</v>
+        <v>0.3092231833609704</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1127</v>
@@ -2284,19 +2284,19 @@
         <v>1166924</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1111440</v>
+        <v>1111799</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1221930</v>
+        <v>1225607</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3453257670591905</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.328906436686189</v>
+        <v>0.3290128291786754</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3616037976298744</v>
+        <v>0.3626918066934735</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2055</v>
@@ -2305,19 +2305,19 @@
         <v>2122357</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2037981</v>
+        <v>2047268</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2190841</v>
+        <v>2201105</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3188761714903631</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3061989827960247</v>
+        <v>0.3075943485142042</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3291655942423995</v>
+        <v>0.3307077488160163</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2321110</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2271482</v>
+        <v>2263360</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2371829</v>
+        <v>2371625</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7084020889788859</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6932557195000432</v>
+        <v>0.6907768166390297</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7238815537534786</v>
+        <v>0.7238191330293314</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2170</v>
@@ -2355,19 +2355,19 @@
         <v>2212273</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2157267</v>
+        <v>2153590</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2267757</v>
+        <v>2267398</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6546742329408095</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6383962023701257</v>
+        <v>0.6373081933065268</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.671093563313811</v>
+        <v>0.6709871708213252</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4456</v>
@@ -2376,19 +2376,19 @@
         <v>4533384</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4464900</v>
+        <v>4454636</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4617760</v>
+        <v>4608473</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6811238285096369</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6708344057576006</v>
+        <v>0.6692922511839836</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6938010172039754</v>
+        <v>0.6924056514857959</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>157283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>135918</v>
+        <v>138841</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>179908</v>
+        <v>178228</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3463275775141131</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2992832663160332</v>
+        <v>0.3057198287361715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3961455658326172</v>
+        <v>0.3924472048423789</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>193</v>
@@ -2744,19 +2744,19 @@
         <v>195789</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>175715</v>
+        <v>174676</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>216441</v>
+        <v>216148</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4550805326070073</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4084203245834618</v>
+        <v>0.4060057650464475</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.503082314666025</v>
+        <v>0.5024002228294583</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>347</v>
@@ -2765,19 +2765,19 @@
         <v>353073</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>324901</v>
+        <v>326000</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>384553</v>
+        <v>385142</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3992335415750234</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3673788864821167</v>
+        <v>0.3686210739520895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4348294618034354</v>
+        <v>0.4354952094108051</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>296863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274238</v>
+        <v>275918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>318228</v>
+        <v>315305</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6536724224858869</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6038544341673828</v>
+        <v>0.6075527951576212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7007167336839668</v>
+        <v>0.6942801712638286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -2815,19 +2815,19 @@
         <v>234441</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>213789</v>
+        <v>214082</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>254515</v>
+        <v>255554</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5449194673929927</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.496917685333975</v>
+        <v>0.4975997771705416</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5915796754165381</v>
+        <v>0.5939942349535524</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>520</v>
@@ -2836,19 +2836,19 @@
         <v>531303</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>499823</v>
+        <v>499234</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>559475</v>
+        <v>558376</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6007664584249767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5651705381965657</v>
+        <v>0.5645047905891948</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6326211135178841</v>
+        <v>0.6313789260479103</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>269068</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>242146</v>
+        <v>243795</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>293856</v>
+        <v>296047</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3916066128523173</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3524238525110271</v>
+        <v>0.3548235657100373</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4276837963349301</v>
+        <v>0.4308725148044626</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>379</v>
@@ -2961,19 +2961,19 @@
         <v>404915</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>382577</v>
+        <v>381078</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>430012</v>
+        <v>430097</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6635180802806419</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.626912753025245</v>
+        <v>0.6244566032445665</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.704643654299567</v>
+        <v>0.70478272295232</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>638</v>
@@ -2982,19 +2982,19 @@
         <v>673983</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>641249</v>
+        <v>637853</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>712474</v>
+        <v>709786</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5195107324418849</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.494279260584078</v>
+        <v>0.4916616120989345</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.549179712939978</v>
+        <v>0.5471078593602966</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>418019</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>393231</v>
+        <v>391040</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>444941</v>
+        <v>443292</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6083933871476827</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5723162036650696</v>
+        <v>0.5691274851955372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6475761474889725</v>
+        <v>0.6451764342899622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>192</v>
@@ -3032,19 +3032,19 @@
         <v>205340</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>180243</v>
+        <v>180158</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>227678</v>
+        <v>229177</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3364819197193581</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.295356345700433</v>
+        <v>0.29521727704768</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3730872469747551</v>
+        <v>0.3755433967554335</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>600</v>
@@ -3053,19 +3053,19 @@
         <v>623359</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>584868</v>
+        <v>587556</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>656093</v>
+        <v>659489</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4804892675581151</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4508202870600221</v>
+        <v>0.4528921406397034</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5057207394159221</v>
+        <v>0.5083383879010654</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>505977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>480942</v>
+        <v>479416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>529491</v>
+        <v>529162</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7420511733549088</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7053352253879925</v>
+        <v>0.7030977804615685</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7765352087019045</v>
+        <v>0.776053536770013</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>546</v>
@@ -3178,19 +3178,19 @@
         <v>579821</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>558296</v>
+        <v>557121</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>599501</v>
+        <v>601134</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8156722321576153</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7853927909283779</v>
+        <v>0.7837387707820493</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8433574699015648</v>
+        <v>0.8456547499532654</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1036</v>
@@ -3199,19 +3199,19 @@
         <v>1085797</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1050588</v>
+        <v>1050809</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1119280</v>
+        <v>1116607</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7796278528642642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7543467912641557</v>
+        <v>0.754505894020801</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8036690564752796</v>
+        <v>0.8017502416656592</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>175886</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>152372</v>
+        <v>152701</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>200921</v>
+        <v>202447</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2579488266450912</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2234647912980955</v>
+        <v>0.2239464632299863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2946647746120074</v>
+        <v>0.2969022195384314</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -3249,19 +3249,19 @@
         <v>131029</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111349</v>
+        <v>109716</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>152554</v>
+        <v>153729</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1843277678423846</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1566425300984352</v>
+        <v>0.1543452500467346</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2146072090716221</v>
+        <v>0.2162612292179507</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>282</v>
@@ -3270,19 +3270,19 @@
         <v>306915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>273432</v>
+        <v>276105</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>342124</v>
+        <v>341903</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2203721471357358</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1963309435247202</v>
+        <v>0.1982497583343405</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2456532087358442</v>
+        <v>0.2454941059791987</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>323625</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>297813</v>
+        <v>296881</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>351459</v>
+        <v>348186</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5265466303784024</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4845509709845351</v>
+        <v>0.4830345722835588</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5718334426759443</v>
+        <v>0.5665091890790752</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>241</v>
@@ -3395,19 +3395,19 @@
         <v>276116</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>252026</v>
+        <v>251101</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>301421</v>
+        <v>302630</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4480947882968923</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4090015880796007</v>
+        <v>0.4074996867874188</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4891622467371933</v>
+        <v>0.4911239159000941</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>532</v>
@@ -3416,19 +3416,19 @@
         <v>599740</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>563007</v>
+        <v>565099</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>634611</v>
+        <v>639030</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4872702778125726</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.457425472888784</v>
+        <v>0.4591257814266685</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5156020439086826</v>
+        <v>0.5191919716369408</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>290992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>263158</v>
+        <v>266431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>316804</v>
+        <v>317736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4734533696215976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4281665573240556</v>
+        <v>0.433490810920925</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5154490290154647</v>
+        <v>0.5169654277164412</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>298</v>
@@ -3466,19 +3466,19 @@
         <v>340083</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>314778</v>
+        <v>313569</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364173</v>
+        <v>365098</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5519052117031077</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5108377532628068</v>
+        <v>0.5088760840999058</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5909984119203993</v>
+        <v>0.5925003132125811</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>555</v>
@@ -3487,19 +3487,19 @@
         <v>631076</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>596205</v>
+        <v>591786</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>667809</v>
+        <v>665717</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5127297221874274</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4843979560913169</v>
+        <v>0.4808080283630592</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5425745271112155</v>
+        <v>0.5408742185733314</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>114480</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97861</v>
+        <v>95020</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136214</v>
+        <v>134403</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2665871431172298</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2278867590590309</v>
+        <v>0.2212703619128766</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3171983968927368</v>
+        <v>0.3129818039688526</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>94</v>
@@ -3612,19 +3612,19 @@
         <v>104994</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87414</v>
+        <v>88363</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>124999</v>
+        <v>128364</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2344659924229892</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1952084370302113</v>
+        <v>0.1973275664709206</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2791397401304386</v>
+        <v>0.2866547672871419</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>200</v>
@@ -3633,19 +3633,19 @@
         <v>219474</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>193537</v>
+        <v>191921</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>247104</v>
+        <v>246812</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2501902289042203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2206232228535135</v>
+        <v>0.2187803898349694</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2816866914571453</v>
+        <v>0.2813537818775569</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>314949</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>293215</v>
+        <v>295026</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>331568</v>
+        <v>334409</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7334128568827701</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6828016031072631</v>
+        <v>0.6870181960311472</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7721132409409691</v>
+        <v>0.7787296380871233</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>312</v>
@@ -3683,19 +3683,19 @@
         <v>342806</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>322801</v>
+        <v>319436</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>360386</v>
+        <v>359437</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7655340075770108</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7208602598695615</v>
+        <v>0.7133452327128589</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8047915629697889</v>
+        <v>0.8026724335290795</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>599</v>
@@ -3704,19 +3704,19 @@
         <v>657755</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>630125</v>
+        <v>630417</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>683692</v>
+        <v>685308</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7498097710957796</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7183133085428547</v>
+        <v>0.7186462181224438</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7793767771464865</v>
+        <v>0.7812196101650311</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>72588</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58335</v>
+        <v>58134</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90254</v>
+        <v>89488</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2343179409779647</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1883085306250218</v>
+        <v>0.1876587762944551</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2913443871459652</v>
+        <v>0.2888705862043455</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>90</v>
@@ -3829,19 +3829,19 @@
         <v>92073</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>76405</v>
+        <v>76223</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>108492</v>
+        <v>109289</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2600965579444456</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2158370688811158</v>
+        <v>0.2153228735297044</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3064790907683714</v>
+        <v>0.3087291600877933</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>156</v>
@@ -3850,19 +3850,19 @@
         <v>164662</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>142305</v>
+        <v>144379</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>189229</v>
+        <v>189787</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.248065714773272</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2143849610348068</v>
+        <v>0.2175093718607269</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2850773857925176</v>
+        <v>0.2859177600900762</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>237198</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219532</v>
+        <v>220298</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251451</v>
+        <v>251652</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7656820590220352</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7086556128540346</v>
+        <v>0.7111294137956548</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8116914693749782</v>
+        <v>0.812341223705545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>254</v>
@@ -3900,19 +3900,19 @@
         <v>261923</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>245504</v>
+        <v>244707</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277591</v>
+        <v>277773</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7399034420555544</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6935209092316286</v>
+        <v>0.6912708399122067</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7841629311188838</v>
+        <v>0.7846771264702956</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>470</v>
@@ -3921,19 +3921,19 @@
         <v>499120</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>474553</v>
+        <v>473995</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>521477</v>
+        <v>519403</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.751934285226728</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7149226142074823</v>
+        <v>0.7140822399099238</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7856150389651932</v>
+        <v>0.7824906281392731</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>91566</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>77306</v>
+        <v>74973</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108484</v>
+        <v>108689</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3664834606756267</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.309409280935727</v>
+        <v>0.3000696318013641</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4341941589077092</v>
+        <v>0.4350157786189784</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>164</v>
@@ -4046,19 +4046,19 @@
         <v>182133</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>160066</v>
+        <v>163641</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>203916</v>
+        <v>204190</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4682340009682722</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4115034371368035</v>
+        <v>0.420692497923558</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5242350564254309</v>
+        <v>0.5249394211464952</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>242</v>
@@ -4067,19 +4067,19 @@
         <v>273699</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>247052</v>
+        <v>245954</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>299397</v>
+        <v>300303</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4284386481252093</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3867264184105648</v>
+        <v>0.3850073488292169</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4686638112256096</v>
+        <v>0.4700824987165051</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>158285</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>141367</v>
+        <v>141162</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>172545</v>
+        <v>174878</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6335165393243732</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5658058410922908</v>
+        <v>0.5649842213810224</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6905907190642726</v>
+        <v>0.699930368198636</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>186</v>
@@ -4117,19 +4117,19 @@
         <v>206846</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>185063</v>
+        <v>184789</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>228913</v>
+        <v>225338</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5317659990317277</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4757649435745692</v>
+        <v>0.4750605788535052</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5884965628631965</v>
+        <v>0.579307502076442</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>330</v>
@@ -4138,19 +4138,19 @@
         <v>365131</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>339433</v>
+        <v>338527</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>391778</v>
+        <v>392876</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5715613518747907</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5313361887743904</v>
+        <v>0.5299175012834949</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6132735815894353</v>
+        <v>0.6149926511707832</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1534588</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1475591</v>
+        <v>1472934</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1593485</v>
+        <v>1591357</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4478221457369024</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4306056819988066</v>
+        <v>0.4298303422497715</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4650094289289327</v>
+        <v>0.4643886383334656</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1707</v>
@@ -4263,19 +4263,19 @@
         <v>1835841</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1775902</v>
+        <v>1769058</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1898971</v>
+        <v>1897674</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.515930694634338</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4990858184093719</v>
+        <v>0.4971624396607692</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5336722321268663</v>
+        <v>0.5333077586825593</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3151</v>
@@ -4284,19 +4284,19 @@
         <v>3370428</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3286198</v>
+        <v>3285508</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3460966</v>
+        <v>3455978</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4825176671571776</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4704590687935061</v>
+        <v>0.470360250276911</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4954792255067716</v>
+        <v>0.494765130717205</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1892191</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1833294</v>
+        <v>1835422</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1951188</v>
+        <v>1953845</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5521778542630976</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5349905710710674</v>
+        <v>0.5356113616665346</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5693943180011938</v>
+        <v>0.5701696577502285</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1591</v>
@@ -4334,19 +4334,19 @@
         <v>1722468</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1659338</v>
+        <v>1660635</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1782407</v>
+        <v>1789251</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4840693053656619</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4663277678731337</v>
+        <v>0.4666922413174407</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5009141815906282</v>
+        <v>0.502837560339231</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3356</v>
@@ -4355,19 +4355,19 @@
         <v>3614660</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3524122</v>
+        <v>3529110</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3698890</v>
+        <v>3699580</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5174823328428224</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5045207744932287</v>
+        <v>0.505234869282795</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.529540931206494</v>
+        <v>0.529639749723089</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>96808</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77932</v>
+        <v>79292</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113902</v>
+        <v>114063</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2307910247102554</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1857889011488676</v>
+        <v>0.1890330270892577</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2715415215759994</v>
+        <v>0.271926321788473</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>128</v>
@@ -4723,19 +4723,19 @@
         <v>127571</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109128</v>
+        <v>109936</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>147167</v>
+        <v>148222</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3223471758044607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2757457526281512</v>
+        <v>0.2777876920724644</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3718645225240351</v>
+        <v>0.3745306653681168</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>215</v>
@@ -4744,19 +4744,19 @@
         <v>224379</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>197985</v>
+        <v>199394</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>248463</v>
+        <v>250811</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2752377920559514</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2428617008291419</v>
+        <v>0.2445900900428418</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3047808071826036</v>
+        <v>0.3076607370563201</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>322655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>305561</v>
+        <v>305400</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>341531</v>
+        <v>340171</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7692089752897445</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7284584784240006</v>
+        <v>0.7280736782115269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8142110988511324</v>
+        <v>0.8109669729107418</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -4794,19 +4794,19 @@
         <v>268184</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248588</v>
+        <v>247533</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286627</v>
+        <v>285819</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6776528241955393</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.628135477475965</v>
+        <v>0.6254693346318834</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7242542473718492</v>
+        <v>0.7222123079275358</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>582</v>
@@ -4815,19 +4815,19 @@
         <v>590839</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>566755</v>
+        <v>564407</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>617233</v>
+        <v>615824</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7247622079440487</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6952191928173966</v>
+        <v>0.69233926294368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7571382991708582</v>
+        <v>0.7554099099571583</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>224591</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>200860</v>
+        <v>202623</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>249859</v>
+        <v>247783</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.38034233889394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3401553673608437</v>
+        <v>0.3431407489645262</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4231334295289243</v>
+        <v>0.4196185815764108</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>333</v>
@@ -4940,19 +4940,19 @@
         <v>325689</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>301634</v>
+        <v>302156</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>347177</v>
+        <v>348585</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5779306517105107</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5352442793389643</v>
+        <v>0.5361714769905195</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6160605565456894</v>
+        <v>0.6185578046541585</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>547</v>
@@ -4961,19 +4961,19 @@
         <v>550280</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>517047</v>
+        <v>517086</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>583690</v>
+        <v>581613</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4768291598870122</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4480324791702716</v>
+        <v>0.4480661591592999</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5057794462648346</v>
+        <v>0.5039801572767785</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>365905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>340637</v>
+        <v>342713</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>389636</v>
+        <v>387873</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.61965766110606</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5768665704710756</v>
+        <v>0.5803814184235891</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6598446326391563</v>
+        <v>0.6568592510354737</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>246</v>
@@ -5011,19 +5011,19 @@
         <v>237855</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>216367</v>
+        <v>214959</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>261910</v>
+        <v>261388</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4220693482894893</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3839394434543106</v>
+        <v>0.3814421953458414</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4647557206610357</v>
+        <v>0.4638285230094805</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>599</v>
@@ -5032,19 +5032,19 @@
         <v>603760</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>570350</v>
+        <v>572427</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>636993</v>
+        <v>636954</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5231708401129878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4942205537351654</v>
+        <v>0.4960198427232214</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5519675208297283</v>
+        <v>0.5519338408406999</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>372152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>346457</v>
+        <v>347444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>398818</v>
+        <v>399983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5562000929124</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.517797312038051</v>
+        <v>0.5192730657412085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5960536261245348</v>
+        <v>0.5977955873928467</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>437</v>
@@ -5157,19 +5157,19 @@
         <v>434827</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>411006</v>
+        <v>409927</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>457370</v>
+        <v>458679</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6574475632698605</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6214319623383162</v>
+        <v>0.6197999774695807</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6915322838453287</v>
+        <v>0.6935119569220473</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>794</v>
@@ -5178,19 +5178,19 @@
         <v>806978</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>769241</v>
+        <v>767474</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>843335</v>
+        <v>841055</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6065304535673349</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5781670110547787</v>
+        <v>0.5768389444529863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6338560552864906</v>
+        <v>0.632142352586094</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>296945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>270279</v>
+        <v>269114</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>322640</v>
+        <v>321653</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4437999070875999</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4039463738754656</v>
+        <v>0.4022044126071537</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.482202687961949</v>
+        <v>0.4807269342587916</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>228</v>
@@ -5228,19 +5228,19 @@
         <v>226559</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>204016</v>
+        <v>202707</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250380</v>
+        <v>251459</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3425524367301395</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3084677161546713</v>
+        <v>0.3064880430779527</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3785680376616838</v>
+        <v>0.3802000225304194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>509</v>
@@ -5249,19 +5249,19 @@
         <v>523505</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>487148</v>
+        <v>489428</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>561242</v>
+        <v>563009</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.393469546432665</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3661439447135094</v>
+        <v>0.3678576474139059</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.421832988945221</v>
+        <v>0.4231610555470133</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>200138</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>175222</v>
+        <v>174856</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>224754</v>
+        <v>223037</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3097888485109342</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2712212609737188</v>
+        <v>0.27065409348768</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3478913067592832</v>
+        <v>0.3452336114266083</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>188</v>
@@ -5374,19 +5374,19 @@
         <v>201782</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>179115</v>
+        <v>178283</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>225727</v>
+        <v>224720</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3108753803058563</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2759529846388892</v>
+        <v>0.2746712796279217</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.347766002152277</v>
+        <v>0.3462139664353283</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>368</v>
@@ -5395,19 +5395,19 @@
         <v>401921</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>368939</v>
+        <v>367264</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>434945</v>
+        <v>435479</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3103333848317001</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2848677719159216</v>
+        <v>0.2835739916050177</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3358322405313228</v>
+        <v>0.3362445837502427</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>445910</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>421294</v>
+        <v>423011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>470826</v>
+        <v>471192</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6902111514890658</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6521086932407169</v>
+        <v>0.6547663885733918</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7287787390262811</v>
+        <v>0.72934590651232</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>414</v>
@@ -5445,19 +5445,19 @@
         <v>447295</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>423350</v>
+        <v>424357</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>469962</v>
+        <v>470794</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6891246196941437</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6522339978477228</v>
+        <v>0.6537860335646718</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7240470153611107</v>
+        <v>0.7253287203720783</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>816</v>
@@ -5466,19 +5466,19 @@
         <v>893204</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>860180</v>
+        <v>859646</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>926186</v>
+        <v>927861</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6896666151682999</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6641677594686773</v>
+        <v>0.6637554162497573</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7151322280840784</v>
+        <v>0.7164260083949822</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>61628</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46559</v>
+        <v>47610</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77558</v>
+        <v>78012</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1289512676326127</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09742142816183363</v>
+        <v>0.09961966691503769</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1622824277968089</v>
+        <v>0.1632322042834665</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -5591,19 +5591,19 @@
         <v>73052</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58735</v>
+        <v>57367</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91637</v>
+        <v>90956</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1470297390984323</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1182143775071533</v>
+        <v>0.1154616406353548</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1844355806440517</v>
+        <v>0.1830649992277249</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>118</v>
@@ -5612,19 +5612,19 @@
         <v>134680</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>113746</v>
+        <v>113201</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>158221</v>
+        <v>158951</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1381660548542728</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1166903297431867</v>
+        <v>0.1161311074849223</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1623172396794777</v>
+        <v>0.1630660991325735</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>416290</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>400360</v>
+        <v>399906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>431359</v>
+        <v>430308</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8710487323673873</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8377175722031911</v>
+        <v>0.8367677957165334</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9025785718381663</v>
+        <v>0.9003803330849622</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>370</v>
@@ -5662,19 +5662,19 @@
         <v>423797</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>405212</v>
+        <v>405893</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>438114</v>
+        <v>439482</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8529702609015677</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8155644193559483</v>
+        <v>0.8169350007722751</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8817856224928466</v>
+        <v>0.8845383593646452</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>739</v>
@@ -5683,19 +5683,19 @@
         <v>840087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>816546</v>
+        <v>815816</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>861021</v>
+        <v>861566</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8618339451457272</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8376827603205224</v>
+        <v>0.8369339008674265</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8833096702568133</v>
+        <v>0.8838688925150776</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>38134</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27242</v>
+        <v>27045</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50485</v>
+        <v>50155</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1140609517375706</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08148139658843363</v>
+        <v>0.08089167568707606</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1510022864775702</v>
+        <v>0.150016167021857</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -5808,19 +5808,19 @@
         <v>63722</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50590</v>
+        <v>49965</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82057</v>
+        <v>80976</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1686822619560092</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1339213964412942</v>
+        <v>0.1322656223196678</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.217218775712416</v>
+        <v>0.2143577347414512</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -5829,19 +5829,19 @@
         <v>101856</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85615</v>
+        <v>84240</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>121399</v>
+        <v>122041</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.143037341705609</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1202306299177492</v>
+        <v>0.1182999949538413</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.170482266640149</v>
+        <v>0.1713843264806149</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>296196</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>283845</v>
+        <v>284175</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>307088</v>
+        <v>307285</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8859390482624294</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8489977135224299</v>
+        <v>0.8499838329781438</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9185186034115662</v>
+        <v>0.919108324312924</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>296</v>
@@ -5879,19 +5879,19 @@
         <v>314040</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>295705</v>
+        <v>296786</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>327172</v>
+        <v>327797</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8313177380439908</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.782781224287584</v>
+        <v>0.7856422652585487</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8660786035587058</v>
+        <v>0.8677343776803321</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>583</v>
@@ -5900,19 +5900,19 @@
         <v>610236</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>590693</v>
+        <v>590051</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>626477</v>
+        <v>627852</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.856962658294391</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8295177333598511</v>
+        <v>0.8286156735193849</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8797693700822511</v>
+        <v>0.8817000050461586</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>69239</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56707</v>
+        <v>56589</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83046</v>
+        <v>81785</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2694155474780168</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2206500076722562</v>
+        <v>0.2201909636054905</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3231405399042409</v>
+        <v>0.3182336064950412</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>109</v>
@@ -6025,19 +6025,19 @@
         <v>146962</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>125466</v>
+        <v>124324</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>169824</v>
+        <v>167039</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3672503691576133</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3135325505463224</v>
+        <v>0.3106785708153445</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4243813340613146</v>
+        <v>0.4174214937165127</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>189</v>
@@ -6046,19 +6046,19 @@
         <v>216201</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>188732</v>
+        <v>189896</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>241618</v>
+        <v>242485</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3289901497807363</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2871904241581962</v>
+        <v>0.2889614686504829</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3676659528527513</v>
+        <v>0.3689850128063069</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>187759</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>173952</v>
+        <v>175213</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>200291</v>
+        <v>200409</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7305844525219832</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6768594600957591</v>
+        <v>0.6817663935049588</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7793499923277438</v>
+        <v>0.7798090363945095</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>192</v>
@@ -6096,19 +6096,19 @@
         <v>253207</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>230345</v>
+        <v>233130</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>274703</v>
+        <v>275845</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6327496308423868</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5756186659386854</v>
+        <v>0.5825785062834874</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6864674494536777</v>
+        <v>0.6893214291846557</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>414</v>
@@ -6117,19 +6117,19 @@
         <v>440966</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>415549</v>
+        <v>414682</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>468435</v>
+        <v>467271</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6710098502192636</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6323340471472487</v>
+        <v>0.6310149871936931</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7128095758418038</v>
+        <v>0.711038531349517</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1062691</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1010897</v>
+        <v>1009018</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1117510</v>
+        <v>1112442</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3130762944019242</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2978175280825964</v>
+        <v>0.2972640182538714</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3292264321397705</v>
+        <v>0.3277334337782356</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1316</v>
@@ -6242,19 +6242,19 @@
         <v>1373604</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1316883</v>
+        <v>1315638</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1437430</v>
+        <v>1437138</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3875265367147412</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3715240385025101</v>
+        <v>0.3711729542213033</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4055332440909303</v>
+        <v>0.4054509934336432</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2327</v>
@@ -6263,19 +6263,19 @@
         <v>2436295</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2356779</v>
+        <v>2356518</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2515608</v>
+        <v>2519187</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3511071497173628</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.339647687970836</v>
+        <v>0.3396100978662916</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3625373781421774</v>
+        <v>0.3630531920100895</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2331659</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2276840</v>
+        <v>2281908</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2383453</v>
+        <v>2385332</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6869237055980758</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6707735678602293</v>
+        <v>0.6722665662217645</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.702182471917403</v>
+        <v>0.7027359817461286</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2022</v>
@@ -6313,19 +6313,19 @@
         <v>2170938</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2107112</v>
+        <v>2107404</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2227659</v>
+        <v>2228904</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6124734632852589</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5944667559090699</v>
+        <v>0.5945490065663568</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6284759614974899</v>
+        <v>0.6288270457786966</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4242</v>
@@ -6334,19 +6334,19 @@
         <v>4502597</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4423284</v>
+        <v>4419705</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4582113</v>
+        <v>4582374</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6488928502826372</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6374626218578228</v>
+        <v>0.6369468079899105</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6603523120291643</v>
+        <v>0.6603899021337084</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>31803</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17829</v>
+        <v>18073</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51149</v>
+        <v>50171</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07798732060351096</v>
+        <v>0.07798732060351098</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04372179284373914</v>
+        <v>0.04431921221551759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1254296645183621</v>
+        <v>0.1230304087825987</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -6702,19 +6702,19 @@
         <v>40624</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25605</v>
+        <v>25045</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58336</v>
+        <v>56683</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1120633752693465</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0706309484455498</v>
+        <v>0.06908789137731046</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1609219160759349</v>
+        <v>0.1563613644243773</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -6723,19 +6723,19 @@
         <v>72427</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51413</v>
+        <v>51637</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96853</v>
+        <v>97024</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0940237961198349</v>
+        <v>0.09402379611983487</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06674341565554121</v>
+        <v>0.06703473413965813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1257332896846483</v>
+        <v>0.1259557475601518</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>375990</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>356644</v>
+        <v>357622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>389964</v>
+        <v>389720</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9220126793964892</v>
+        <v>0.9220126793964891</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8745703354816379</v>
+        <v>0.8769695912174013</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9562782071562609</v>
+        <v>0.9556807877844824</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -6773,19 +6773,19 @@
         <v>321888</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>304176</v>
+        <v>305829</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>336907</v>
+        <v>337467</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8879366247306535</v>
+        <v>0.8879366247306536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8390780839240651</v>
+        <v>0.8436386355756229</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9293690515544504</v>
+        <v>0.9309121086226897</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>341</v>
@@ -6794,19 +6794,19 @@
         <v>697878</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>673452</v>
+        <v>673281</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>718892</v>
+        <v>718668</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9059762038801654</v>
+        <v>0.9059762038801651</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8742667103153519</v>
+        <v>0.8740442524398484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9332565843444589</v>
+        <v>0.9329652658603419</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>64371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46683</v>
+        <v>47086</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87015</v>
+        <v>87855</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1349811521972409</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09789030343861421</v>
+        <v>0.09873500307888715</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1824636530194849</v>
+        <v>0.1842242388674967</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -6919,19 +6919,19 @@
         <v>107801</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88583</v>
+        <v>89157</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127618</v>
+        <v>125757</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.214856934847458</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1765534339377675</v>
+        <v>0.1776988670296326</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2543548972695875</v>
+        <v>0.250644393750677</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -6940,19 +6940,19 @@
         <v>172172</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149109</v>
+        <v>145129</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203220</v>
+        <v>202226</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1759328669494184</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1523657186234879</v>
+        <v>0.1482989995445919</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2076588341057402</v>
+        <v>0.2066432197987654</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>412519</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>389875</v>
+        <v>389035</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>430207</v>
+        <v>429804</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.865018847802759</v>
+        <v>0.8650188478027591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.817536346980515</v>
+        <v>0.8157757611325032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9021096965613857</v>
+        <v>0.9012649969211127</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>360</v>
@@ -6990,19 +6990,19 @@
         <v>393932</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>374115</v>
+        <v>375976</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>413150</v>
+        <v>412576</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7851430651525417</v>
+        <v>0.7851430651525418</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7456451027304128</v>
+        <v>0.7493556062493244</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8234465660622325</v>
+        <v>0.8223011329703676</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>620</v>
@@ -7011,19 +7011,19 @@
         <v>806451</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>775403</v>
+        <v>776397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>829514</v>
+        <v>833494</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8240671330505814</v>
+        <v>0.8240671330505815</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.79234116589426</v>
+        <v>0.7933567802012339</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.847634281376512</v>
+        <v>0.8517010004554072</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>128750</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108166</v>
+        <v>107665</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151879</v>
+        <v>150614</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2073806429540937</v>
+        <v>0.2073806429540938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1742260050335727</v>
+        <v>0.1734192709180533</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2446354048548015</v>
+        <v>0.2425975534233361</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>194</v>
@@ -7136,19 +7136,19 @@
         <v>150164</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>132450</v>
+        <v>130720</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>169882</v>
+        <v>169211</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2409587295039594</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2125352311393842</v>
+        <v>0.2097579546455091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2725992083540478</v>
+        <v>0.2715222859060293</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>305</v>
@@ -7157,19 +7157,19 @@
         <v>278913</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>249925</v>
+        <v>249575</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>307058</v>
+        <v>308677</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.224201479464234</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2008992805917618</v>
+        <v>0.2006183926471476</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2468251827193883</v>
+        <v>0.2481265555610936</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>492087</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>468958</v>
+        <v>470223</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>512671</v>
+        <v>513172</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7926193570459062</v>
+        <v>0.7926193570459064</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7553645951451986</v>
+        <v>0.7574024465766637</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8257739949664273</v>
+        <v>0.8265807290819467</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>654</v>
@@ -7207,19 +7207,19 @@
         <v>473029</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>453311</v>
+        <v>453982</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>490743</v>
+        <v>492473</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7590412704960405</v>
+        <v>0.7590412704960406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7274007916459522</v>
+        <v>0.7284777140939707</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7874647688606157</v>
+        <v>0.7902420453544907</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1089</v>
@@ -7228,19 +7228,19 @@
         <v>965116</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>936971</v>
+        <v>935352</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>994104</v>
+        <v>994454</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7757985205357659</v>
+        <v>0.7757985205357658</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7531748172806116</v>
+        <v>0.7518734444389064</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7991007194082379</v>
+        <v>0.7993816073528522</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>103116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85417</v>
+        <v>85445</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123932</v>
+        <v>124817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1471787185448149</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1219162496173172</v>
+        <v>0.1219572664452737</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1768904654285736</v>
+        <v>0.1781536024242512</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>163</v>
@@ -7353,19 +7353,19 @@
         <v>112364</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>97258</v>
+        <v>96165</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>129714</v>
+        <v>127896</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1524853506571384</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1319850115865751</v>
+        <v>0.1305018276811428</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1760296738263975</v>
+        <v>0.1735624275927981</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>256</v>
@@ -7374,19 +7374,19 @@
         <v>215480</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>191269</v>
+        <v>191446</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>242948</v>
+        <v>239925</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1498989796137265</v>
+        <v>0.1498989796137266</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1330561034749955</v>
+        <v>0.1331792118615709</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1690071514565998</v>
+        <v>0.1669040295875603</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>597501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>576685</v>
+        <v>575800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>615200</v>
+        <v>615172</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8528212814551851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8231095345714267</v>
+        <v>0.8218463975757488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8780837503826828</v>
+        <v>0.8780427335547264</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>978</v>
@@ -7424,19 +7424,19 @@
         <v>624522</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>607172</v>
+        <v>608990</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>639628</v>
+        <v>640721</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8475146493428616</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8239703261736026</v>
+        <v>0.8264375724072019</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8680149884134249</v>
+        <v>0.8694981723188573</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1550</v>
@@ -7445,19 +7445,19 @@
         <v>1222024</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1194556</v>
+        <v>1197579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1246235</v>
+        <v>1246058</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8501010203862733</v>
+        <v>0.8501010203862734</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8309928485434001</v>
+        <v>0.8330959704124395</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8669438965250045</v>
+        <v>0.866820788138429</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>51966</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40720</v>
+        <v>40070</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67580</v>
+        <v>66534</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08528144673558255</v>
+        <v>0.08528144673558256</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0668261612755706</v>
+        <v>0.06575963682273533</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1109066067658399</v>
+        <v>0.1091891895489119</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -7570,19 +7570,19 @@
         <v>64623</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54532</v>
+        <v>53702</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77461</v>
+        <v>77517</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1061391545718786</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08956477910352699</v>
+        <v>0.0882016417132379</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1272242571220792</v>
+        <v>0.1273166350946554</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>158</v>
@@ -7591,19 +7591,19 @@
         <v>116589</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101321</v>
+        <v>99970</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136358</v>
+        <v>135807</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09570609689990786</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08317236362835508</v>
+        <v>0.08206347099045577</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1119335099171176</v>
+        <v>0.1114813706557961</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>557380</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>541766</v>
+        <v>542812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>568626</v>
+        <v>569276</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9147185532644174</v>
+        <v>0.9147185532644173</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8890933932341604</v>
+        <v>0.890810810451088</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9331738387244296</v>
+        <v>0.9342403631772648</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>901</v>
@@ -7641,19 +7641,19 @@
         <v>544232</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>531394</v>
+        <v>531338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>554323</v>
+        <v>555153</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8938608454281214</v>
+        <v>0.8938608454281215</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8727757428779208</v>
+        <v>0.8726833649053448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9104352208964729</v>
+        <v>0.9117983582867621</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1507</v>
@@ -7662,19 +7662,19 @@
         <v>1101613</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1081844</v>
+        <v>1082395</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1116881</v>
+        <v>1118232</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9042939031000922</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8880664900828825</v>
+        <v>0.8885186293442039</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.916827636371645</v>
+        <v>0.9179365290095444</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>34652</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26922</v>
+        <v>26750</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44687</v>
+        <v>45135</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08512317558805552</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06613530927872109</v>
+        <v>0.06571190702857191</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1097751732636006</v>
+        <v>0.1108760774550728</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -7787,19 +7787,19 @@
         <v>52390</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42417</v>
+        <v>42586</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62341</v>
+        <v>62661</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1192939810030313</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09658545383627634</v>
+        <v>0.09697085099867606</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1419529696310054</v>
+        <v>0.1426828987769169</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>148</v>
@@ -7808,19 +7808,19 @@
         <v>87042</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73803</v>
+        <v>73940</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100291</v>
+        <v>100828</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1028563924249226</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08721204213155102</v>
+        <v>0.08737471127414161</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1185125457588381</v>
+        <v>0.1191479358909568</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>372428</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>362393</v>
+        <v>361945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>380158</v>
+        <v>380330</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9148768244119444</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8902248267363992</v>
+        <v>0.8891239225449274</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9338646907212789</v>
+        <v>0.9342880929714281</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>728</v>
@@ -7858,19 +7858,19 @@
         <v>386776</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>376825</v>
+        <v>376505</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>396749</v>
+        <v>396580</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8807060189969687</v>
+        <v>0.8807060189969688</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8580470303689945</v>
+        <v>0.8573171012230832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9034145461637237</v>
+        <v>0.9030291490013244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1249</v>
@@ -7879,19 +7879,19 @@
         <v>759204</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>745955</v>
+        <v>745418</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>772443</v>
+        <v>772306</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8971436075750773</v>
+        <v>0.8971436075750774</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8814874542411618</v>
+        <v>0.8808520641090433</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.912787957868449</v>
+        <v>0.9126252887258586</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>64218</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53355</v>
+        <v>52753</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76511</v>
+        <v>76784</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2070213247393742</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1720038954204585</v>
+        <v>0.1700631140773983</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2466536221038731</v>
+        <v>0.2475337062841388</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>278</v>
@@ -8004,19 +8004,19 @@
         <v>145788</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>131450</v>
+        <v>130806</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>161362</v>
+        <v>160757</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3137860408054373</v>
+        <v>0.3137860408054372</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2829251643603731</v>
+        <v>0.2815401690057687</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3473070710258078</v>
+        <v>0.3460055640825775</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>380</v>
@@ -8025,19 +8025,19 @@
         <v>210005</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>190476</v>
+        <v>192662</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>228333</v>
+        <v>231611</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2710422016201564</v>
+        <v>0.2710422016201562</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2458367701337113</v>
+        <v>0.2486585366538316</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2946971641000758</v>
+        <v>0.2989276217948318</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>245980</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233687</v>
+        <v>233414</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>256843</v>
+        <v>257445</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7929786752606256</v>
+        <v>0.7929786752606257</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7533463778961267</v>
+        <v>0.7524662937158613</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8279961045795413</v>
+        <v>0.8299368859226013</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>603</v>
@@ -8075,19 +8075,19 @@
         <v>318821</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>303247</v>
+        <v>303852</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>333159</v>
+        <v>333803</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6862139591945629</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6526929289741922</v>
+        <v>0.6539944359174225</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7170748356396268</v>
+        <v>0.7184598309942315</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>959</v>
@@ -8096,19 +8096,19 @@
         <v>564802</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>546474</v>
+        <v>543196</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>584331</v>
+        <v>582145</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7289577983798436</v>
+        <v>0.7289577983798435</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7053028358999243</v>
+        <v>0.7010723782051681</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7541632298662885</v>
+        <v>0.7513414633461682</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>478875</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>435504</v>
+        <v>433463</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>522642</v>
+        <v>524341</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.135552554368907</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1232757738372352</v>
+        <v>0.1226979638777153</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1479414703008629</v>
+        <v>0.1484224299347068</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>959</v>
@@ -8221,19 +8221,19 @@
         <v>673754</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>630607</v>
+        <v>630275</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>716361</v>
+        <v>716454</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.180295013380705</v>
+        <v>0.1802950133807049</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1687488209205183</v>
+        <v>0.1686600352278033</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1916966172411666</v>
+        <v>0.1917213703148506</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1428</v>
@@ -8242,19 +8242,19 @@
         <v>1152629</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1097343</v>
+        <v>1094610</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1221186</v>
+        <v>1217158</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1585521484238492</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1509471328248174</v>
+        <v>0.1505712127971679</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1679826492599588</v>
+        <v>0.1674285552091248</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3053887</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3010120</v>
+        <v>3008421</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3097258</v>
+        <v>3099299</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8644474456310932</v>
+        <v>0.8644474456310931</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8520585296991366</v>
+        <v>0.8515775700652937</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8767242261627648</v>
+        <v>0.8773020361222855</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4408</v>
@@ -8292,19 +8292,19 @@
         <v>3063200</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3020593</v>
+        <v>3020500</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3106347</v>
+        <v>3106679</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8197049866192951</v>
+        <v>0.819704986619295</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8083033827588335</v>
+        <v>0.8082786296851495</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8312511790794818</v>
+        <v>0.8313399647721966</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7315</v>
@@ -8313,19 +8313,19 @@
         <v>6117087</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6048530</v>
+        <v>6052558</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6172373</v>
+        <v>6175106</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8414478515761508</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8320173507400412</v>
+        <v>0.8325714447908753</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8490528671751828</v>
+        <v>0.8494287872028322</v>
       </c>
     </row>
     <row r="27">
